--- a/FlyJournal/assets/fly_data.xlsx
+++ b/FlyJournal/assets/fly_data.xlsx
@@ -548,12 +548,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>uz</t>
+          <t>Airbus200</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -561,81 +561,81 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>367</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>7282</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>TJM</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>VKO</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>TJM</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>04:00:00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>04:00:00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>01:39:00</t>
+          <t>04:00:00</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>03:20:00</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>04:00:00</t>
         </is>
       </c>
     </row>
